--- a/biology/Écologie/Moynaq/Moynaq.xlsx
+++ b/biology/Écologie/Moynaq/Moynaq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Moynaq (en karakalpak), Moʻynoq (en ouzbek) ou Mouïnak (en russe : Муйнак)[2] est une ville de la république du Karakalpakstan, en Ouzbékistan. Elle est située à 885 km au nord-ouest de Tachkent. Sa population s'élevait à 13 500 habitants en 2018[1].
+Moynaq (en karakalpak), Moʻynoq (en ouzbek) ou Mouïnak (en russe : Муйнак) est une ville de la république du Karakalpakstan, en Ouzbékistan. Elle est située à 885 km au nord-ouest de Tachkent. Sa population s'élevait à 13 500 habitants en 2018.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Moynaq est un ancien port du sud de la mer d'Aral, anciennement doté d'une économie active liée à la pêche et à la mise en conserve. Suivant les ordres de Lénine, les pêcheurs de Moynaq jouèrent un grand rôle dans la lutte contre la famine russe de 1921-1922.
 Aujourd'hui, Moynaq est l'un des témoins de la catastrophe environnementale que subit la région en raison du retrait de la mer d'Aral, qui se trouve à quelque 35 km au nord et n'est plus visible à l'horizon depuis l'ancien port. Un « cimetière de bateaux », comprenant une dizaine de carcasses rouillées, et un petit musée attestent de l'ampleur de la catastrophe actuelle et de la richesse passée.
